--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_113.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_113.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(28.8, 36.86), (84.0, 90.84)]</t>
+          <t>[('0:03:53.340000', '0:04:09.140000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7)]</t>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.340000', '0:00:08.860000'), ('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1169415292353823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['C', 'Bb/5', 'F']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.5, 23.02)]</t>
+          <t>[['B', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[('0:00:31.217551', '0:00:34.874693')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:02.537346', '0:00:08.504874')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.525</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(109.44, 123.14)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(84.16, 92.42)]</t>
+          <t>[('0:00:03.129454', '0:00:05.172811')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[('0:00:38.841000', '0:00:46.833000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:07.960000', '0:00:21.560000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[('0:00:35.820000', '0:00:37.760000'), ('0:00:35.600000', '0:00:37.240000'), ('0:00:08.460000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:12.260000', '0:00:25.040000'), ('0:00:49.400000', '0:00:56.760000'), ('0:00:01.440000', '0:00:06.660000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5319148936170213</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(69.06, 72.5)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:00:03.988594', '0:00:07.754783')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.4, 44.08)]</t>
+          <t>[('0:00:21.020000', '0:00:31.860000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:42.140000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(87.2, 97.22), (41.38, 43.34)]</t>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5), (84.62, 91.74)]</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:02.860000', '0:00:05.300000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['D/5', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.88, 12.78)]</t>
+          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(17.36, 20.12)]</t>
+          <t>[('0:00:27.963197', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:02:01.080000', '0:02:02.360000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.4, 13.72)]</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72)]</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(4.76, 118.78)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.54, 122.26)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
